--- a/excel/2019-03-05 Kelsey SQL project-2.xlsx
+++ b/excel/2019-03-05 Kelsey SQL project-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coding/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coding/Desktop/UW/where-does-it-go/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4F60D3-219B-4F49-817F-BB9AA3D0FBDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962DFE32-8D99-024C-8355-5C45B81F7631}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="460" windowWidth="24860" windowHeight="16760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="460" windowWidth="24860" windowHeight="16760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="itemDetail (2)" sheetId="4" r:id="rId1"/>
@@ -17450,11 +17450,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC478"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A468" sqref="A468"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17559,7 +17560,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -17597,7 +17598,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -17635,7 +17636,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -17673,7 +17674,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -17711,7 +17712,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -17750,7 +17751,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -17789,7 +17790,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -17828,7 +17829,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -17866,7 +17867,7 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -17905,7 +17906,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -17944,7 +17945,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -17982,7 +17983,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -18017,7 +18018,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -18049,7 +18050,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -18083,7 +18084,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -18119,7 +18120,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -18157,7 +18158,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -18192,7 +18193,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -18229,7 +18230,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -18262,7 +18263,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -18295,7 +18296,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -18328,7 +18329,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -18361,7 +18362,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -18395,7 +18396,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -18435,7 +18436,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -18470,7 +18471,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -18508,7 +18509,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -18547,7 +18548,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="201" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="201" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -18582,7 +18583,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -18618,7 +18619,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -18656,7 +18657,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -18691,7 +18692,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:25" ht="114" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -18728,7 +18729,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -18763,7 +18764,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -18801,7 +18802,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -18838,7 +18839,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -18873,7 +18874,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -18911,7 +18912,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -18949,7 +18950,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -18986,7 +18987,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -19020,7 +19021,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -19057,7 +19058,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -19091,7 +19092,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
     </row>
-    <row r="44" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -19124,7 +19125,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -19164,7 +19165,7 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
     </row>
-    <row r="46" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -19198,7 +19199,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -19236,7 +19237,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -19268,7 +19269,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -19306,7 +19307,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -19344,7 +19345,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -19382,7 +19383,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -19415,7 +19416,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -19453,7 +19454,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -19492,7 +19493,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -19530,7 +19531,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -19569,7 +19570,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -19604,7 +19605,7 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -19638,7 +19639,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -19673,7 +19674,7 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -19706,7 +19707,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -19739,7 +19740,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -19772,7 +19773,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -19805,7 +19806,7 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1</v>
       </c>
@@ -19844,7 +19845,7 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -19879,7 +19880,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
     </row>
-    <row r="66" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -19912,7 +19913,7 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
     </row>
-    <row r="67" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -19945,7 +19946,7 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
     </row>
-    <row r="68" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -19986,7 +19987,7 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
     </row>
-    <row r="69" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -20019,7 +20020,7 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
-    <row r="70" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -20057,7 +20058,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
     </row>
-    <row r="71" spans="1:25" ht="76" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1</v>
       </c>
@@ -20091,7 +20092,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
     </row>
-    <row r="72" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -20126,7 +20127,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
     </row>
-    <row r="73" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -20162,7 +20163,7 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
     </row>
-    <row r="74" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -20197,7 +20198,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
     </row>
-    <row r="75" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -20235,7 +20236,7 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
     </row>
-    <row r="76" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1</v>
       </c>
@@ -20273,7 +20274,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
     </row>
-    <row r="77" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>2</v>
       </c>
@@ -20306,7 +20307,7 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
     </row>
-    <row r="78" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -20339,7 +20340,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
     </row>
-    <row r="79" spans="1:25" ht="114" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="114" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -20373,7 +20374,7 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
     </row>
-    <row r="80" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>2</v>
       </c>
@@ -20411,7 +20412,7 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
     </row>
-    <row r="81" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -20445,7 +20446,7 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
     </row>
-    <row r="82" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>2</v>
       </c>
@@ -20483,7 +20484,7 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
     </row>
-    <row r="83" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -20522,7 +20523,7 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
     </row>
-    <row r="84" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -20559,7 +20560,7 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
     </row>
-    <row r="85" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -20597,7 +20598,7 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
     </row>
-    <row r="86" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -20631,7 +20632,7 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
     </row>
-    <row r="87" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -20671,7 +20672,7 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
     </row>
-    <row r="88" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -20709,7 +20710,7 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
     </row>
-    <row r="89" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>2</v>
       </c>
@@ -20742,7 +20743,7 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
     </row>
-    <row r="90" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -20780,7 +20781,7 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
     </row>
-    <row r="91" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -20816,7 +20817,7 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
     </row>
-    <row r="92" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -20854,7 +20855,7 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
     </row>
-    <row r="93" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -20890,7 +20891,7 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
     </row>
-    <row r="94" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>2</v>
       </c>
@@ -20928,7 +20929,7 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
     </row>
-    <row r="95" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>2</v>
       </c>
@@ -20963,7 +20964,7 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
     </row>
-    <row r="96" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>2</v>
       </c>
@@ -20999,7 +21000,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>2</v>
       </c>
@@ -21037,7 +21038,7 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
     </row>
-    <row r="98" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -21074,7 +21075,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>2</v>
       </c>
@@ -21110,7 +21111,7 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
     </row>
-    <row r="100" spans="1:25" ht="255" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -21149,7 +21150,7 @@
       </c>
       <c r="Y100" s="3"/>
     </row>
-    <row r="101" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -21187,7 +21188,7 @@
       </c>
       <c r="Y101" s="3"/>
     </row>
-    <row r="102" spans="1:25" ht="238" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2</v>
       </c>
@@ -21227,7 +21228,7 @@
       </c>
       <c r="Y102" s="3"/>
     </row>
-    <row r="103" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -21263,7 +21264,7 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
     </row>
-    <row r="104" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2</v>
       </c>
@@ -21303,7 +21304,7 @@
       </c>
       <c r="Y104" s="3"/>
     </row>
-    <row r="105" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>2</v>
       </c>
@@ -21340,7 +21341,7 @@
       </c>
       <c r="Y105" s="3"/>
     </row>
-    <row r="106" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>3</v>
       </c>
@@ -21378,7 +21379,7 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
     </row>
-    <row r="107" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>3</v>
       </c>
@@ -21413,7 +21414,7 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
     </row>
-    <row r="108" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>3</v>
       </c>
@@ -21445,7 +21446,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
     </row>
-    <row r="109" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>3</v>
       </c>
@@ -21479,7 +21480,7 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
     </row>
-    <row r="110" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -21515,7 +21516,7 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
     </row>
-    <row r="111" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>3</v>
       </c>
@@ -21553,7 +21554,7 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
     </row>
-    <row r="112" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -21588,7 +21589,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
     </row>
-    <row r="113" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -21625,7 +21626,7 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
     </row>
-    <row r="114" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -21658,7 +21659,7 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
     </row>
-    <row r="115" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -21693,7 +21694,7 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
     </row>
-    <row r="116" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -21725,7 +21726,7 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
     </row>
-    <row r="117" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -21760,7 +21761,7 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
     </row>
-    <row r="118" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -21798,7 +21799,7 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
     </row>
-    <row r="119" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -21836,7 +21837,7 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
     </row>
-    <row r="120" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>3</v>
       </c>
@@ -21873,7 +21874,7 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
     </row>
-    <row r="121" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>3</v>
       </c>
@@ -21911,7 +21912,7 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
     </row>
-    <row r="122" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>3</v>
       </c>
@@ -21949,7 +21950,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
     </row>
-    <row r="123" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>3</v>
       </c>
@@ -21982,7 +21983,7 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
     </row>
-    <row r="124" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>3</v>
       </c>
@@ -22020,7 +22021,7 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
     </row>
-    <row r="125" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>3</v>
       </c>
@@ -22056,7 +22057,7 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
     </row>
-    <row r="126" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>3</v>
       </c>
@@ -22094,7 +22095,7 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
     </row>
-    <row r="127" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>3</v>
       </c>
@@ -22131,7 +22132,7 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
     </row>
-    <row r="128" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>3</v>
       </c>
@@ -22169,7 +22170,7 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
     </row>
-    <row r="129" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>3</v>
       </c>
@@ -22207,7 +22208,7 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
     </row>
-    <row r="130" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>4</v>
       </c>
@@ -22242,7 +22243,7 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
     </row>
-    <row r="131" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>4</v>
       </c>
@@ -22281,7 +22282,7 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
     </row>
-    <row r="132" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>4</v>
       </c>
@@ -22317,7 +22318,7 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
     </row>
-    <row r="133" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>4</v>
       </c>
@@ -22350,7 +22351,7 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
     </row>
-    <row r="134" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>4</v>
       </c>
@@ -22385,7 +22386,7 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
     </row>
-    <row r="135" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>4</v>
       </c>
@@ -22423,7 +22424,7 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
     </row>
-    <row r="136" spans="1:25" ht="255" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>5</v>
       </c>
@@ -22455,7 +22456,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>5</v>
       </c>
@@ -22490,7 +22491,7 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
     </row>
-    <row r="138" spans="1:25" ht="238" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>5</v>
       </c>
@@ -22522,7 +22523,7 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
     </row>
-    <row r="139" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>5</v>
       </c>
@@ -22556,7 +22557,7 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
     </row>
-    <row r="140" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>5</v>
       </c>
@@ -22589,7 +22590,7 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
     </row>
-    <row r="141" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>6</v>
       </c>
@@ -22624,7 +22625,7 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
     </row>
-    <row r="142" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>6</v>
       </c>
@@ -22659,7 +22660,7 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
     </row>
-    <row r="143" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>6</v>
       </c>
@@ -22694,7 +22695,7 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
     </row>
-    <row r="144" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>6</v>
       </c>
@@ -22727,7 +22728,7 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
     </row>
-    <row r="145" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>6</v>
       </c>
@@ -22760,7 +22761,7 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
     </row>
-    <row r="146" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>6</v>
       </c>
@@ -22799,7 +22800,7 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
     </row>
-    <row r="147" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>6</v>
       </c>
@@ -22832,7 +22833,7 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
     </row>
-    <row r="148" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>6</v>
       </c>
@@ -22867,7 +22868,7 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
     </row>
-    <row r="149" spans="1:25" ht="356" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="356" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>6</v>
       </c>
@@ -22906,7 +22907,7 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
     </row>
-    <row r="150" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -22941,7 +22942,7 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
     </row>
-    <row r="151" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>6</v>
       </c>
@@ -22976,7 +22977,7 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
     </row>
-    <row r="152" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>6</v>
       </c>
@@ -23011,7 +23012,7 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
     </row>
-    <row r="153" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>6</v>
       </c>
@@ -23046,7 +23047,7 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
     </row>
-    <row r="154" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>6</v>
       </c>
@@ -23080,7 +23081,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
     </row>
-    <row r="155" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>6</v>
       </c>
@@ -23112,7 +23113,7 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
     </row>
-    <row r="156" spans="1:25" ht="356" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="356" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>6</v>
       </c>
@@ -23151,7 +23152,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
     </row>
-    <row r="157" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>6</v>
       </c>
@@ -23183,7 +23184,7 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
     </row>
-    <row r="158" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>6</v>
       </c>
@@ -23218,7 +23219,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
     </row>
-    <row r="159" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>6</v>
       </c>
@@ -23253,7 +23254,7 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
     </row>
-    <row r="160" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>6</v>
       </c>
@@ -23288,7 +23289,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
     </row>
-    <row r="161" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>6</v>
       </c>
@@ -23321,7 +23322,7 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
     </row>
-    <row r="162" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>6</v>
       </c>
@@ -23353,7 +23354,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
     </row>
-    <row r="163" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>6</v>
       </c>
@@ -23385,7 +23386,7 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
     </row>
-    <row r="164" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>6</v>
       </c>
@@ -23417,7 +23418,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
     </row>
-    <row r="165" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>6</v>
       </c>
@@ -23449,7 +23450,7 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
     </row>
-    <row r="166" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>6</v>
       </c>
@@ -23481,7 +23482,7 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
     </row>
-    <row r="167" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>6</v>
       </c>
@@ -23517,7 +23518,7 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
     </row>
-    <row r="168" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>6</v>
       </c>
@@ -23551,7 +23552,7 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
     </row>
-    <row r="169" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>6</v>
       </c>
@@ -23583,7 +23584,7 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
     </row>
-    <row r="170" spans="1:25" ht="187" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>6</v>
       </c>
@@ -23620,7 +23621,7 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
     </row>
-    <row r="171" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>6</v>
       </c>
@@ -23653,7 +23654,7 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
     </row>
-    <row r="172" spans="1:25" ht="306" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" ht="306" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>6</v>
       </c>
@@ -23685,7 +23686,7 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
     </row>
-    <row r="173" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>6</v>
       </c>
@@ -23721,7 +23722,7 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
     </row>
-    <row r="174" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>6</v>
       </c>
@@ -23756,7 +23757,7 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
     </row>
-    <row r="175" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>6</v>
       </c>
@@ -23791,7 +23792,7 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
     </row>
-    <row r="176" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>6</v>
       </c>
@@ -23830,7 +23831,7 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
     </row>
-    <row r="177" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>6</v>
       </c>
@@ -23864,7 +23865,7 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
     </row>
-    <row r="178" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>6</v>
       </c>
@@ -23901,7 +23902,7 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
     </row>
-    <row r="179" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>6</v>
       </c>
@@ -23936,7 +23937,7 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
     </row>
-    <row r="180" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>6</v>
       </c>
@@ -23971,7 +23972,7 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
     </row>
-    <row r="181" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>6</v>
       </c>
@@ -24006,7 +24007,7 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
     </row>
-    <row r="182" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>6</v>
       </c>
@@ -24041,7 +24042,7 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
     </row>
-    <row r="183" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>6</v>
       </c>
@@ -24076,7 +24077,7 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
     </row>
-    <row r="184" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>6</v>
       </c>
@@ -24110,7 +24111,7 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
     </row>
-    <row r="185" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>6</v>
       </c>
@@ -24145,7 +24146,7 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
     </row>
-    <row r="186" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>6</v>
       </c>
@@ -24180,7 +24181,7 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
     </row>
-    <row r="187" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>6</v>
       </c>
@@ -24216,7 +24217,7 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
     </row>
-    <row r="188" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>6</v>
       </c>
@@ -24248,7 +24249,7 @@
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
     </row>
-    <row r="189" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>6</v>
       </c>
@@ -24284,7 +24285,7 @@
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
     </row>
-    <row r="190" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>6</v>
       </c>
@@ -24323,7 +24324,7 @@
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
     </row>
-    <row r="191" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>6</v>
       </c>
@@ -24357,7 +24358,7 @@
       <c r="X191" s="3"/>
       <c r="Y191" s="3"/>
     </row>
-    <row r="192" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>6</v>
       </c>
@@ -24389,7 +24390,7 @@
       <c r="X192" s="3"/>
       <c r="Y192" s="3"/>
     </row>
-    <row r="193" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>6</v>
       </c>
@@ -24426,7 +24427,7 @@
       <c r="X193" s="3"/>
       <c r="Y193" s="3"/>
     </row>
-    <row r="194" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>6</v>
       </c>
@@ -24458,7 +24459,7 @@
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
     </row>
-    <row r="195" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>6</v>
       </c>
@@ -24490,7 +24491,7 @@
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
     </row>
-    <row r="196" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>6</v>
       </c>
@@ -24527,7 +24528,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
     </row>
-    <row r="197" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>6</v>
       </c>
@@ -24562,7 +24563,7 @@
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
     </row>
-    <row r="198" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>6</v>
       </c>
@@ -24597,7 +24598,7 @@
       <c r="X198" s="3"/>
       <c r="Y198" s="3"/>
     </row>
-    <row r="199" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>6</v>
       </c>
@@ -24634,7 +24635,7 @@
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
     </row>
-    <row r="200" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>6</v>
       </c>
@@ -24669,7 +24670,7 @@
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
     </row>
-    <row r="201" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>6</v>
       </c>
@@ -24702,7 +24703,7 @@
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
     </row>
-    <row r="202" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>6</v>
       </c>
@@ -24734,7 +24735,7 @@
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
     </row>
-    <row r="203" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>6</v>
       </c>
@@ -24771,7 +24772,7 @@
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
     </row>
-    <row r="204" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>6</v>
       </c>
@@ -24806,7 +24807,7 @@
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
     </row>
-    <row r="205" spans="1:25" ht="356" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" ht="356" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>6</v>
       </c>
@@ -24845,7 +24846,7 @@
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
     </row>
-    <row r="206" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>6</v>
       </c>
@@ -24882,7 +24883,7 @@
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
     </row>
-    <row r="207" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>6</v>
       </c>
@@ -24912,7 +24913,7 @@
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
     </row>
-    <row r="208" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>6</v>
       </c>
@@ -25437,7 +25438,7 @@
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
     </row>
-    <row r="223" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>8</v>
       </c>
@@ -25472,7 +25473,7 @@
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
     </row>
-    <row r="224" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>8</v>
       </c>
@@ -25504,7 +25505,7 @@
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
     </row>
-    <row r="225" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>8</v>
       </c>
@@ -25538,7 +25539,7 @@
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
     </row>
-    <row r="226" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>8</v>
       </c>
@@ -25576,7 +25577,7 @@
       <c r="X226" s="3"/>
       <c r="Y226" s="3"/>
     </row>
-    <row r="227" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>8</v>
       </c>
@@ -25611,7 +25612,7 @@
       <c r="X227" s="3"/>
       <c r="Y227" s="3"/>
     </row>
-    <row r="228" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>8</v>
       </c>
@@ -25643,7 +25644,7 @@
       <c r="X228" s="3"/>
       <c r="Y228" s="3"/>
     </row>
-    <row r="229" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>8</v>
       </c>
@@ -25677,7 +25678,7 @@
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
     </row>
-    <row r="230" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>8</v>
       </c>
@@ -25713,7 +25714,7 @@
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
     </row>
-    <row r="231" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>8</v>
       </c>
@@ -25751,7 +25752,7 @@
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
     </row>
-    <row r="232" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>8</v>
       </c>
@@ -25786,7 +25787,7 @@
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
     </row>
-    <row r="233" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>8</v>
       </c>
@@ -25823,7 +25824,7 @@
       <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
     </row>
-    <row r="234" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>8</v>
       </c>
@@ -25856,7 +25857,7 @@
       <c r="X234" s="3"/>
       <c r="Y234" s="3"/>
     </row>
-    <row r="235" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>8</v>
       </c>
@@ -25891,7 +25892,7 @@
       <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
     </row>
-    <row r="236" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>8</v>
       </c>
@@ -25926,7 +25927,7 @@
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
     </row>
-    <row r="237" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>8</v>
       </c>
@@ -25962,7 +25963,7 @@
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
     </row>
-    <row r="238" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>8</v>
       </c>
@@ -25995,7 +25996,7 @@
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
     </row>
-    <row r="239" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>8</v>
       </c>
@@ -26030,7 +26031,7 @@
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
     </row>
-    <row r="240" spans="1:25" ht="289" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="289" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>8</v>
       </c>
@@ -26068,7 +26069,7 @@
       <c r="X240" s="3"/>
       <c r="Y240" s="3"/>
     </row>
-    <row r="241" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>8</v>
       </c>
@@ -26106,7 +26107,7 @@
       <c r="X241" s="3"/>
       <c r="Y241" s="3"/>
     </row>
-    <row r="242" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>8</v>
       </c>
@@ -26144,7 +26145,7 @@
       <c r="X242" s="3"/>
       <c r="Y242" s="3"/>
     </row>
-    <row r="243" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>8</v>
       </c>
@@ -26179,7 +26180,7 @@
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
     </row>
-    <row r="244" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>8</v>
       </c>
@@ -26213,7 +26214,7 @@
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
     </row>
-    <row r="245" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>8</v>
       </c>
@@ -26247,7 +26248,7 @@
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
     </row>
-    <row r="246" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>8</v>
       </c>
@@ -26281,7 +26282,7 @@
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
     </row>
-    <row r="247" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>8</v>
       </c>
@@ -26315,7 +26316,7 @@
       <c r="X247" s="3"/>
       <c r="Y247" s="3"/>
     </row>
-    <row r="248" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>8</v>
       </c>
@@ -26349,7 +26350,7 @@
       <c r="X248" s="3"/>
       <c r="Y248" s="3"/>
     </row>
-    <row r="249" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>8</v>
       </c>
@@ -26381,7 +26382,7 @@
       <c r="X249" s="3"/>
       <c r="Y249" s="3"/>
     </row>
-    <row r="250" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>8</v>
       </c>
@@ -26416,7 +26417,7 @@
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
     </row>
-    <row r="251" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>8</v>
       </c>
@@ -26451,7 +26452,7 @@
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
     </row>
-    <row r="252" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>8</v>
       </c>
@@ -26489,7 +26490,7 @@
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
     </row>
-    <row r="253" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>8</v>
       </c>
@@ -26528,7 +26529,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>8</v>
       </c>
@@ -26565,7 +26566,7 @@
       <c r="X254" s="3"/>
       <c r="Y254" s="3"/>
     </row>
-    <row r="255" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>8</v>
       </c>
@@ -26597,7 +26598,7 @@
       <c r="X255" s="3"/>
       <c r="Y255" s="3"/>
     </row>
-    <row r="256" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -26629,7 +26630,7 @@
       <c r="X256" s="3"/>
       <c r="Y256" s="3"/>
     </row>
-    <row r="257" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>8</v>
       </c>
@@ -26664,7 +26665,7 @@
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
     </row>
-    <row r="258" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>8</v>
       </c>
@@ -26700,7 +26701,7 @@
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
     </row>
-    <row r="259" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>8</v>
       </c>
@@ -26732,7 +26733,7 @@
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
     </row>
-    <row r="260" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>8</v>
       </c>
@@ -26768,7 +26769,7 @@
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
     </row>
-    <row r="261" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>8</v>
       </c>
@@ -26800,7 +26801,7 @@
       <c r="X261" s="3"/>
       <c r="Y261" s="3"/>
     </row>
-    <row r="262" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>8</v>
       </c>
@@ -26837,7 +26838,7 @@
       <c r="X262" s="3"/>
       <c r="Y262" s="3"/>
     </row>
-    <row r="263" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>8</v>
       </c>
@@ -26873,7 +26874,7 @@
       <c r="X263" s="3"/>
       <c r="Y263" s="3"/>
     </row>
-    <row r="264" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>8</v>
       </c>
@@ -26908,7 +26909,7 @@
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
     </row>
-    <row r="265" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>8</v>
       </c>
@@ -26942,7 +26943,7 @@
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
     </row>
-    <row r="266" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>9</v>
       </c>
@@ -26980,7 +26981,7 @@
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
     </row>
-    <row r="267" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>9</v>
       </c>
@@ -27018,7 +27019,7 @@
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
     </row>
-    <row r="268" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>9</v>
       </c>
@@ -27056,7 +27057,7 @@
       <c r="X268" s="3"/>
       <c r="Y268" s="3"/>
     </row>
-    <row r="269" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>9</v>
       </c>
@@ -27094,7 +27095,7 @@
       <c r="X269" s="3"/>
       <c r="Y269" s="3"/>
     </row>
-    <row r="270" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>9</v>
       </c>
@@ -27133,7 +27134,7 @@
       <c r="X270" s="3"/>
       <c r="Y270" s="3"/>
     </row>
-    <row r="271" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>9</v>
       </c>
@@ -27172,7 +27173,7 @@
       <c r="X271" s="3"/>
       <c r="Y271" s="3"/>
     </row>
-    <row r="272" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>9</v>
       </c>
@@ -27211,7 +27212,7 @@
       <c r="X272" s="3"/>
       <c r="Y272" s="3"/>
     </row>
-    <row r="273" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>9</v>
       </c>
@@ -27249,7 +27250,7 @@
       <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
     </row>
-    <row r="274" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>9</v>
       </c>
@@ -27288,7 +27289,7 @@
       <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
     </row>
-    <row r="275" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>9</v>
       </c>
@@ -27327,7 +27328,7 @@
       <c r="X275" s="3"/>
       <c r="Y275" s="3"/>
     </row>
-    <row r="276" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>9</v>
       </c>
@@ -27365,7 +27366,7 @@
       <c r="X276" s="3"/>
       <c r="Y276" s="3"/>
     </row>
-    <row r="277" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>9</v>
       </c>
@@ -27403,7 +27404,7 @@
       <c r="X277" s="3"/>
       <c r="Y277" s="3"/>
     </row>
-    <row r="278" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>9</v>
       </c>
@@ -27438,7 +27439,7 @@
       <c r="X278" s="3"/>
       <c r="Y278" s="3"/>
     </row>
-    <row r="279" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>9</v>
       </c>
@@ -27470,7 +27471,7 @@
       <c r="X279" s="3"/>
       <c r="Y279" s="3"/>
     </row>
-    <row r="280" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>9</v>
       </c>
@@ -27504,7 +27505,7 @@
       <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
     </row>
-    <row r="281" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>9</v>
       </c>
@@ -27540,7 +27541,7 @@
       <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
     </row>
-    <row r="282" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>9</v>
       </c>
@@ -27578,7 +27579,7 @@
       <c r="X282" s="3"/>
       <c r="Y282" s="3"/>
     </row>
-    <row r="283" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>9</v>
       </c>
@@ -27613,7 +27614,7 @@
       <c r="X283" s="3"/>
       <c r="Y283" s="3"/>
     </row>
-    <row r="284" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>9</v>
       </c>
@@ -27650,7 +27651,7 @@
       <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
     </row>
-    <row r="285" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>9</v>
       </c>
@@ -27683,7 +27684,7 @@
       <c r="X285" s="3"/>
       <c r="Y285" s="3"/>
     </row>
-    <row r="286" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>9</v>
       </c>
@@ -27721,7 +27722,7 @@
       <c r="X286" s="3"/>
       <c r="Y286" s="3"/>
     </row>
-    <row r="287" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>9</v>
       </c>
@@ -27756,7 +27757,7 @@
       <c r="X287" s="3"/>
       <c r="Y287" s="3"/>
     </row>
-    <row r="288" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>9</v>
       </c>
@@ -27790,7 +27791,7 @@
       <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
     </row>
-    <row r="289" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>9</v>
       </c>
@@ -27825,7 +27826,7 @@
       <c r="X289" s="3"/>
       <c r="Y289" s="3"/>
     </row>
-    <row r="290" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>9</v>
       </c>
@@ -27860,7 +27861,7 @@
       <c r="X290" s="3"/>
       <c r="Y290" s="3"/>
     </row>
-    <row r="291" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>9</v>
       </c>
@@ -27895,7 +27896,7 @@
       <c r="X291" s="3"/>
       <c r="Y291" s="3"/>
     </row>
-    <row r="292" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>9</v>
       </c>
@@ -27930,7 +27931,7 @@
       <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
     </row>
-    <row r="293" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>9</v>
       </c>
@@ -27965,7 +27966,7 @@
       <c r="X293" s="3"/>
       <c r="Y293" s="3"/>
     </row>
-    <row r="294" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>9</v>
       </c>
@@ -28001,7 +28002,7 @@
       <c r="X294" s="3"/>
       <c r="Y294" s="3"/>
     </row>
-    <row r="295" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>9</v>
       </c>
@@ -28034,7 +28035,7 @@
       <c r="X295" s="3"/>
       <c r="Y295" s="3"/>
     </row>
-    <row r="296" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>9</v>
       </c>
@@ -28069,7 +28070,7 @@
       <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
     </row>
-    <row r="297" spans="1:25" ht="289" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" ht="289" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>9</v>
       </c>
@@ -28107,7 +28108,7 @@
       <c r="X297" s="3"/>
       <c r="Y297" s="3"/>
     </row>
-    <row r="298" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>9</v>
       </c>
@@ -28141,7 +28142,7 @@
       <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
     </row>
-    <row r="299" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>9</v>
       </c>
@@ -28173,7 +28174,7 @@
       <c r="X299" s="3"/>
       <c r="Y299" s="3"/>
     </row>
-    <row r="300" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>9</v>
       </c>
@@ -28208,7 +28209,7 @@
       <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
     </row>
-    <row r="301" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>9</v>
       </c>
@@ -28243,7 +28244,7 @@
       <c r="X301" s="3"/>
       <c r="Y301" s="3"/>
     </row>
-    <row r="302" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>9</v>
       </c>
@@ -28281,7 +28282,7 @@
       <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
     </row>
-    <row r="303" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>9</v>
       </c>
@@ -28316,7 +28317,7 @@
       <c r="X303" s="3"/>
       <c r="Y303" s="3"/>
     </row>
-    <row r="304" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>9</v>
       </c>
@@ -28351,7 +28352,7 @@
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
     </row>
-    <row r="305" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>9</v>
       </c>
@@ -28387,7 +28388,7 @@
       <c r="X305" s="3"/>
       <c r="Y305" s="3"/>
     </row>
-    <row r="306" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>9</v>
       </c>
@@ -28420,7 +28421,7 @@
       <c r="X306" s="3"/>
       <c r="Y306" s="3"/>
     </row>
-    <row r="307" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>9</v>
       </c>
@@ -28455,7 +28456,7 @@
       <c r="X307" s="3"/>
       <c r="Y307" s="3"/>
     </row>
-    <row r="308" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>9</v>
       </c>
@@ -28492,7 +28493,7 @@
       <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
     </row>
-    <row r="309" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>9</v>
       </c>
@@ -28528,7 +28529,7 @@
       <c r="X309" s="3"/>
       <c r="Y309" s="3"/>
     </row>
-    <row r="310" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>9</v>
       </c>
@@ -28565,7 +28566,7 @@
       <c r="X310" s="3"/>
       <c r="Y310" s="3"/>
     </row>
-    <row r="311" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>9</v>
       </c>
@@ -28604,7 +28605,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" ht="153" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>9</v>
       </c>
@@ -28647,7 +28648,7 @@
       <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
     </row>
-    <row r="313" spans="1:29" ht="238" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>9</v>
       </c>
@@ -28690,7 +28691,7 @@
       <c r="X313" s="3"/>
       <c r="Y313" s="3"/>
     </row>
-    <row r="314" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>9</v>
       </c>
@@ -28733,7 +28734,7 @@
       <c r="X314" s="3"/>
       <c r="Y314" s="3"/>
     </row>
-    <row r="315" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>9</v>
       </c>
@@ -28769,7 +28770,7 @@
       <c r="X315" s="3"/>
       <c r="Y315" s="3"/>
     </row>
-    <row r="316" spans="1:29" ht="153" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>9</v>
       </c>
@@ -28812,7 +28813,7 @@
       <c r="X316" s="3"/>
       <c r="Y316" s="3"/>
     </row>
-    <row r="317" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>9</v>
       </c>
@@ -28849,7 +28850,7 @@
       <c r="X317" s="3"/>
       <c r="Y317" s="3"/>
     </row>
-    <row r="318" spans="1:29" ht="153" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>9</v>
       </c>
@@ -28892,7 +28893,7 @@
       <c r="X318" s="3"/>
       <c r="Y318" s="3"/>
     </row>
-    <row r="319" spans="1:29" ht="136" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>9</v>
       </c>
@@ -28935,7 +28936,7 @@
       <c r="X319" s="3"/>
       <c r="Y319" s="3"/>
     </row>
-    <row r="320" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>9</v>
       </c>
@@ -28970,7 +28971,7 @@
       <c r="X320" s="3"/>
       <c r="Y320" s="3"/>
     </row>
-    <row r="321" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>9</v>
       </c>
@@ -29005,7 +29006,7 @@
       <c r="X321" s="3"/>
       <c r="Y321" s="3"/>
     </row>
-    <row r="322" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>9</v>
       </c>
@@ -29043,7 +29044,7 @@
       <c r="X322" s="3"/>
       <c r="Y322" s="3"/>
     </row>
-    <row r="323" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>9</v>
       </c>
@@ -29080,7 +29081,7 @@
       <c r="X323" s="3"/>
       <c r="Y323" s="3"/>
     </row>
-    <row r="324" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>9</v>
       </c>
@@ -29116,7 +29117,7 @@
       <c r="X324" s="3"/>
       <c r="Y324" s="3"/>
     </row>
-    <row r="325" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>10</v>
       </c>
@@ -29152,7 +29153,7 @@
       <c r="X325" s="3"/>
       <c r="Y325" s="3"/>
     </row>
-    <row r="326" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>10</v>
       </c>
@@ -29188,7 +29189,7 @@
       <c r="X326" s="3"/>
       <c r="Y326" s="3"/>
     </row>
-    <row r="327" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>10</v>
       </c>
@@ -29221,7 +29222,7 @@
       <c r="X327" s="3"/>
       <c r="Y327" s="3"/>
     </row>
-    <row r="328" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>10</v>
       </c>
@@ -29253,7 +29254,7 @@
       <c r="X328" s="3"/>
       <c r="Y328" s="3"/>
     </row>
-    <row r="329" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>10</v>
       </c>
@@ -29285,7 +29286,7 @@
       <c r="X329" s="3"/>
       <c r="Y329" s="3"/>
     </row>
-    <row r="330" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>10</v>
       </c>
@@ -29320,7 +29321,7 @@
       <c r="X330" s="3"/>
       <c r="Y330" s="3"/>
     </row>
-    <row r="331" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>10</v>
       </c>
@@ -29355,7 +29356,7 @@
       <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
     </row>
-    <row r="332" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>10</v>
       </c>
@@ -29388,7 +29389,7 @@
       <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
     </row>
-    <row r="333" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>10</v>
       </c>
@@ -29420,7 +29421,7 @@
       <c r="X333" s="3"/>
       <c r="Y333" s="3"/>
     </row>
-    <row r="334" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>10</v>
       </c>
@@ -29452,7 +29453,7 @@
       <c r="X334" s="3"/>
       <c r="Y334" s="3"/>
     </row>
-    <row r="335" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>10</v>
       </c>
@@ -29484,7 +29485,7 @@
       <c r="X335" s="3"/>
       <c r="Y335" s="3"/>
     </row>
-    <row r="336" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>10</v>
       </c>
@@ -29516,7 +29517,7 @@
       <c r="X336" s="3"/>
       <c r="Y336" s="3"/>
     </row>
-    <row r="337" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>10</v>
       </c>
@@ -29553,7 +29554,7 @@
       <c r="X337" s="3"/>
       <c r="Y337" s="3"/>
     </row>
-    <row r="338" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>10</v>
       </c>
@@ -29589,7 +29590,7 @@
       <c r="X338" s="3"/>
       <c r="Y338" s="3"/>
     </row>
-    <row r="339" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>10</v>
       </c>
@@ -29623,7 +29624,7 @@
       <c r="X339" s="3"/>
       <c r="Y339" s="3"/>
     </row>
-    <row r="340" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>10</v>
       </c>
@@ -29660,7 +29661,7 @@
       <c r="X340" s="3"/>
       <c r="Y340" s="3"/>
     </row>
-    <row r="341" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>10</v>
       </c>
@@ -29695,7 +29696,7 @@
       <c r="X341" s="3"/>
       <c r="Y341" s="3"/>
     </row>
-    <row r="342" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>10</v>
       </c>
@@ -29732,7 +29733,7 @@
       <c r="X342" s="3"/>
       <c r="Y342" s="3"/>
     </row>
-    <row r="343" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>10</v>
       </c>
@@ -29769,7 +29770,7 @@
       <c r="X343" s="3"/>
       <c r="Y343" s="3"/>
     </row>
-    <row r="344" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>10</v>
       </c>
@@ -29802,7 +29803,7 @@
       <c r="X344" s="3"/>
       <c r="Y344" s="3"/>
     </row>
-    <row r="345" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3">
         <v>10</v>
       </c>
@@ -29835,7 +29836,7 @@
       <c r="X345" s="3"/>
       <c r="Y345" s="3"/>
     </row>
-    <row r="346" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3">
         <v>10</v>
       </c>
@@ -29870,7 +29871,7 @@
       <c r="X346" s="3"/>
       <c r="Y346" s="3"/>
     </row>
-    <row r="347" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>10</v>
       </c>
@@ -29905,7 +29906,7 @@
       <c r="X347" s="3"/>
       <c r="Y347" s="3"/>
     </row>
-    <row r="348" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>10</v>
       </c>
@@ -29939,7 +29940,7 @@
       <c r="X348" s="3"/>
       <c r="Y348" s="3"/>
     </row>
-    <row r="349" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>10</v>
       </c>
@@ -29978,7 +29979,7 @@
       <c r="X349" s="3"/>
       <c r="Y349" s="3"/>
     </row>
-    <row r="350" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>10</v>
       </c>
@@ -30012,7 +30013,7 @@
       <c r="X350" s="3"/>
       <c r="Y350" s="3"/>
     </row>
-    <row r="351" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>10</v>
       </c>
@@ -30047,7 +30048,7 @@
       <c r="X351" s="3"/>
       <c r="Y351" s="3"/>
     </row>
-    <row r="352" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>10</v>
       </c>
@@ -30079,7 +30080,7 @@
       <c r="X352" s="3"/>
       <c r="Y352" s="3"/>
     </row>
-    <row r="353" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>10</v>
       </c>
@@ -30114,7 +30115,7 @@
       <c r="X353" s="3"/>
       <c r="Y353" s="3"/>
     </row>
-    <row r="354" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>10</v>
       </c>
@@ -30146,7 +30147,7 @@
       <c r="X354" s="3"/>
       <c r="Y354" s="3"/>
     </row>
-    <row r="355" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>10</v>
       </c>
@@ -30180,7 +30181,7 @@
       <c r="X355" s="3"/>
       <c r="Y355" s="3"/>
     </row>
-    <row r="356" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>10</v>
       </c>
@@ -30212,7 +30213,7 @@
       <c r="X356" s="3"/>
       <c r="Y356" s="3"/>
     </row>
-    <row r="357" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>10</v>
       </c>
@@ -30244,7 +30245,7 @@
       <c r="X357" s="3"/>
       <c r="Y357" s="3"/>
     </row>
-    <row r="358" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>10</v>
       </c>
@@ -30277,7 +30278,7 @@
       <c r="X358" s="3"/>
       <c r="Y358" s="3"/>
     </row>
-    <row r="359" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>10</v>
       </c>
@@ -30314,7 +30315,7 @@
       <c r="X359" s="3"/>
       <c r="Y359" s="3"/>
     </row>
-    <row r="360" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>10</v>
       </c>
@@ -30346,7 +30347,7 @@
       <c r="X360" s="3"/>
       <c r="Y360" s="3"/>
     </row>
-    <row r="361" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3">
         <v>10</v>
       </c>
@@ -30381,7 +30382,7 @@
       <c r="X361" s="3"/>
       <c r="Y361" s="3"/>
     </row>
-    <row r="362" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3">
         <v>10</v>
       </c>
@@ -30415,7 +30416,7 @@
       <c r="X362" s="3"/>
       <c r="Y362" s="3"/>
     </row>
-    <row r="363" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>10</v>
       </c>
@@ -30447,7 +30448,7 @@
       <c r="X363" s="3"/>
       <c r="Y363" s="3"/>
     </row>
-    <row r="364" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>10</v>
       </c>
@@ -30483,7 +30484,7 @@
       <c r="X364" s="3"/>
       <c r="Y364" s="3"/>
     </row>
-    <row r="365" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3">
         <v>10</v>
       </c>
@@ -30515,7 +30516,7 @@
       <c r="X365" s="3"/>
       <c r="Y365" s="3"/>
     </row>
-    <row r="366" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>10</v>
       </c>
@@ -30547,7 +30548,7 @@
       <c r="X366" s="3"/>
       <c r="Y366" s="3"/>
     </row>
-    <row r="367" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>10</v>
       </c>
@@ -30581,7 +30582,7 @@
       <c r="X367" s="3"/>
       <c r="Y367" s="3"/>
     </row>
-    <row r="368" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>10</v>
       </c>
@@ -30616,7 +30617,7 @@
       <c r="X368" s="3"/>
       <c r="Y368" s="3"/>
     </row>
-    <row r="369" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>10</v>
       </c>
@@ -30648,7 +30649,7 @@
       <c r="X369" s="3"/>
       <c r="Y369" s="3"/>
     </row>
-    <row r="370" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>10</v>
       </c>
@@ -30680,7 +30681,7 @@
       <c r="X370" s="3"/>
       <c r="Y370" s="3"/>
     </row>
-    <row r="371" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>10</v>
       </c>
@@ -30713,7 +30714,7 @@
       <c r="X371" s="3"/>
       <c r="Y371" s="3"/>
     </row>
-    <row r="372" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>11</v>
       </c>
@@ -30748,7 +30749,7 @@
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
     </row>
-    <row r="373" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>11</v>
       </c>
@@ -30781,7 +30782,7 @@
       <c r="X373" s="3"/>
       <c r="Y373" s="3"/>
     </row>
-    <row r="374" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>11</v>
       </c>
@@ -30818,7 +30819,7 @@
       <c r="X374" s="3"/>
       <c r="Y374" s="3"/>
     </row>
-    <row r="375" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>11</v>
       </c>
@@ -30851,7 +30852,7 @@
       <c r="X375" s="3"/>
       <c r="Y375" s="3"/>
     </row>
-    <row r="376" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>11</v>
       </c>
@@ -30890,7 +30891,7 @@
       <c r="X376" s="3"/>
       <c r="Y376" s="3"/>
     </row>
-    <row r="377" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>11</v>
       </c>
@@ -30927,7 +30928,7 @@
       <c r="X377" s="3"/>
       <c r="Y377" s="3"/>
     </row>
-    <row r="378" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>11</v>
       </c>
@@ -30962,7 +30963,7 @@
       <c r="X378" s="3"/>
       <c r="Y378" s="3"/>
     </row>
-    <row r="379" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>11</v>
       </c>
@@ -31000,7 +31001,7 @@
       <c r="X379" s="3"/>
       <c r="Y379" s="3"/>
     </row>
-    <row r="380" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>11</v>
       </c>
@@ -31035,7 +31036,7 @@
       <c r="X380" s="3"/>
       <c r="Y380" s="3"/>
     </row>
-    <row r="381" spans="1:25" ht="272" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3">
         <v>11</v>
       </c>
@@ -31074,7 +31075,7 @@
       <c r="X381" s="3"/>
       <c r="Y381" s="3"/>
     </row>
-    <row r="382" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3">
         <v>11</v>
       </c>
@@ -31107,7 +31108,7 @@
       <c r="X382" s="3"/>
       <c r="Y382" s="3"/>
     </row>
-    <row r="383" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>11</v>
       </c>
@@ -31140,7 +31141,7 @@
       <c r="X383" s="3"/>
       <c r="Y383" s="3"/>
     </row>
-    <row r="384" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>11</v>
       </c>
@@ -31177,7 +31178,7 @@
       <c r="X384" s="3"/>
       <c r="Y384" s="3"/>
     </row>
-    <row r="385" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>11</v>
       </c>
@@ -31212,7 +31213,7 @@
       <c r="X385" s="3"/>
       <c r="Y385" s="3"/>
     </row>
-    <row r="386" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>11</v>
       </c>
@@ -31249,7 +31250,7 @@
       <c r="X386" s="3"/>
       <c r="Y386" s="3"/>
     </row>
-    <row r="387" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>11</v>
       </c>
@@ -31284,7 +31285,7 @@
       <c r="X387" s="3"/>
       <c r="Y387" s="3"/>
     </row>
-    <row r="388" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>11</v>
       </c>
@@ -31317,7 +31318,7 @@
       <c r="X388" s="3"/>
       <c r="Y388" s="3"/>
     </row>
-    <row r="389" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>11</v>
       </c>
@@ -31349,7 +31350,7 @@
       <c r="X389" s="3"/>
       <c r="Y389" s="3"/>
     </row>
-    <row r="390" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>11</v>
       </c>
@@ -31386,7 +31387,7 @@
       <c r="X390" s="3"/>
       <c r="Y390" s="3"/>
     </row>
-    <row r="391" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>11</v>
       </c>
@@ -31421,7 +31422,7 @@
       <c r="X391" s="3"/>
       <c r="Y391" s="3"/>
     </row>
-    <row r="392" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>11</v>
       </c>
@@ -31453,7 +31454,7 @@
       <c r="X392" s="3"/>
       <c r="Y392" s="3"/>
     </row>
-    <row r="393" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3">
         <v>11</v>
       </c>
@@ -31490,7 +31491,7 @@
       <c r="X393" s="3"/>
       <c r="Y393" s="3"/>
     </row>
-    <row r="394" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>11</v>
       </c>
@@ -31525,7 +31526,7 @@
       <c r="X394" s="3"/>
       <c r="Y394" s="3"/>
     </row>
-    <row r="395" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>11</v>
       </c>
@@ -31555,7 +31556,7 @@
       <c r="X395" s="3"/>
       <c r="Y395" s="3"/>
     </row>
-    <row r="396" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>11</v>
       </c>
@@ -31590,7 +31591,7 @@
       <c r="X396" s="3"/>
       <c r="Y396" s="3"/>
     </row>
-    <row r="397" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>11</v>
       </c>
@@ -31620,7 +31621,7 @@
       <c r="X397" s="3"/>
       <c r="Y397" s="3"/>
     </row>
-    <row r="398" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>11</v>
       </c>
@@ -31652,7 +31653,7 @@
       <c r="X398" s="3"/>
       <c r="Y398" s="3"/>
     </row>
-    <row r="399" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>11</v>
       </c>
@@ -31685,7 +31686,7 @@
       <c r="X399" s="3"/>
       <c r="Y399" s="3"/>
     </row>
-    <row r="400" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>11</v>
       </c>
@@ -31721,7 +31722,7 @@
       <c r="X400" s="3"/>
       <c r="Y400" s="3"/>
     </row>
-    <row r="401" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>11</v>
       </c>
@@ -31757,7 +31758,7 @@
       <c r="X401" s="3"/>
       <c r="Y401" s="3"/>
     </row>
-    <row r="402" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>11</v>
       </c>
@@ -31790,7 +31791,7 @@
       <c r="X402" s="3"/>
       <c r="Y402" s="3"/>
     </row>
-    <row r="403" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>11</v>
       </c>
@@ -31823,7 +31824,7 @@
       <c r="X403" s="3"/>
       <c r="Y403" s="3"/>
     </row>
-    <row r="404" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>11</v>
       </c>
@@ -31853,7 +31854,7 @@
       <c r="X404" s="3"/>
       <c r="Y404" s="3"/>
     </row>
-    <row r="405" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3">
         <v>11</v>
       </c>
@@ -31886,7 +31887,7 @@
       <c r="X405" s="3"/>
       <c r="Y405" s="3"/>
     </row>
-    <row r="406" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3">
         <v>11</v>
       </c>
@@ -31921,7 +31922,7 @@
       <c r="X406" s="3"/>
       <c r="Y406" s="3"/>
     </row>
-    <row r="407" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>11</v>
       </c>
@@ -31953,7 +31954,7 @@
       <c r="X407" s="3"/>
       <c r="Y407" s="3"/>
     </row>
-    <row r="408" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>11</v>
       </c>
@@ -31989,7 +31990,7 @@
       <c r="X408" s="3"/>
       <c r="Y408" s="3"/>
     </row>
-    <row r="409" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>11</v>
       </c>
@@ -32024,7 +32025,7 @@
       <c r="X409" s="3"/>
       <c r="Y409" s="3"/>
     </row>
-    <row r="410" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>11</v>
       </c>
@@ -32059,7 +32060,7 @@
       <c r="X410" s="3"/>
       <c r="Y410" s="3"/>
     </row>
-    <row r="411" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>11</v>
       </c>
@@ -32093,7 +32094,7 @@
       <c r="X411" s="3"/>
       <c r="Y411" s="3"/>
     </row>
-    <row r="412" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>11</v>
       </c>
@@ -32129,7 +32130,7 @@
       <c r="X412" s="3"/>
       <c r="Y412" s="3"/>
     </row>
-    <row r="413" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>11</v>
       </c>
@@ -32166,7 +32167,7 @@
       <c r="X413" s="3"/>
       <c r="Y413" s="3"/>
     </row>
-    <row r="414" spans="1:25" ht="356" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" ht="356" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>11</v>
       </c>
@@ -32205,7 +32206,7 @@
       <c r="X414" s="3"/>
       <c r="Y414" s="3"/>
     </row>
-    <row r="415" spans="1:25" ht="170" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>11</v>
       </c>
@@ -32239,7 +32240,7 @@
       <c r="X415" s="3"/>
       <c r="Y415" s="3"/>
     </row>
-    <row r="416" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>11</v>
       </c>
@@ -32275,7 +32276,7 @@
       <c r="X416" s="3"/>
       <c r="Y416" s="3"/>
     </row>
-    <row r="417" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3">
         <v>11</v>
       </c>
@@ -32310,7 +32311,7 @@
       <c r="X417" s="3"/>
       <c r="Y417" s="3"/>
     </row>
-    <row r="418" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3">
         <v>11</v>
       </c>
@@ -32343,7 +32344,7 @@
       <c r="X418" s="3"/>
       <c r="Y418" s="3"/>
     </row>
-    <row r="419" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>11</v>
       </c>
@@ -32383,7 +32384,7 @@
       <c r="X419" s="3"/>
       <c r="Y419" s="3"/>
     </row>
-    <row r="420" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>11</v>
       </c>
@@ -32416,7 +32417,7 @@
       <c r="X420" s="3"/>
       <c r="Y420" s="3"/>
     </row>
-    <row r="421" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>11</v>
       </c>
@@ -32451,7 +32452,7 @@
       <c r="X421" s="3"/>
       <c r="Y421" s="3"/>
     </row>
-    <row r="422" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>11</v>
       </c>
@@ -32483,7 +32484,7 @@
       <c r="X422" s="3"/>
       <c r="Y422" s="3"/>
     </row>
-    <row r="423" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>11</v>
       </c>
@@ -32518,7 +32519,7 @@
       <c r="X423" s="3"/>
       <c r="Y423" s="3"/>
     </row>
-    <row r="424" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>11</v>
       </c>
@@ -32556,7 +32557,7 @@
       <c r="X424" s="3"/>
       <c r="Y424" s="3"/>
     </row>
-    <row r="425" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>11</v>
       </c>
@@ -32593,7 +32594,7 @@
       <c r="X425" s="3"/>
       <c r="Y425" s="3"/>
     </row>
-    <row r="426" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>11</v>
       </c>
@@ -32630,7 +32631,7 @@
       <c r="X426" s="3"/>
       <c r="Y426" s="3"/>
     </row>
-    <row r="427" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>11</v>
       </c>
@@ -32662,7 +32663,7 @@
       <c r="X427" s="3"/>
       <c r="Y427" s="3"/>
     </row>
-    <row r="428" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>11</v>
       </c>
@@ -32700,7 +32701,7 @@
       <c r="X428" s="3"/>
       <c r="Y428" s="3"/>
     </row>
-    <row r="429" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>11</v>
       </c>
@@ -32732,7 +32733,7 @@
       <c r="X429" s="3"/>
       <c r="Y429" s="3"/>
     </row>
-    <row r="430" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>11</v>
       </c>
@@ -32770,7 +32771,7 @@
       <c r="X430" s="3"/>
       <c r="Y430" s="3"/>
     </row>
-    <row r="431" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>11</v>
       </c>
@@ -32807,7 +32808,7 @@
       <c r="X431" s="3"/>
       <c r="Y431" s="3"/>
     </row>
-    <row r="432" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>11</v>
       </c>
@@ -32842,7 +32843,7 @@
       <c r="X432" s="3"/>
       <c r="Y432" s="3"/>
     </row>
-    <row r="433" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3">
         <v>11</v>
       </c>
@@ -32878,7 +32879,7 @@
       <c r="X433" s="3"/>
       <c r="Y433" s="3"/>
     </row>
-    <row r="434" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3">
         <v>11</v>
       </c>
@@ -32915,7 +32916,7 @@
       <c r="X434" s="3"/>
       <c r="Y434" s="3"/>
     </row>
-    <row r="435" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>11</v>
       </c>
@@ -32948,7 +32949,7 @@
       <c r="X435" s="3"/>
       <c r="Y435" s="3"/>
     </row>
-    <row r="436" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>11</v>
       </c>
@@ -32984,7 +32985,7 @@
       <c r="X436" s="3"/>
       <c r="Y436" s="3"/>
     </row>
-    <row r="437" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3">
         <v>11</v>
       </c>
@@ -33017,7 +33018,7 @@
       <c r="X437" s="3"/>
       <c r="Y437" s="3"/>
     </row>
-    <row r="438" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>11</v>
       </c>
@@ -33057,7 +33058,7 @@
       <c r="X438" s="3"/>
       <c r="Y438" s="3"/>
     </row>
-    <row r="439" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>12</v>
       </c>
@@ -33091,7 +33092,7 @@
       <c r="X439" s="3"/>
       <c r="Y439" s="3"/>
     </row>
-    <row r="440" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>12</v>
       </c>
@@ -33127,7 +33128,7 @@
       <c r="X440" s="3"/>
       <c r="Y440" s="3"/>
     </row>
-    <row r="441" spans="1:25" ht="153" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>12</v>
       </c>
@@ -33165,7 +33166,7 @@
       <c r="X441" s="3"/>
       <c r="Y441" s="3"/>
     </row>
-    <row r="442" spans="1:25" ht="221" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" ht="221" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>12</v>
       </c>
@@ -33199,7 +33200,7 @@
       <c r="X442" s="3"/>
       <c r="Y442" s="3"/>
     </row>
-    <row r="443" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>12</v>
       </c>
@@ -33234,7 +33235,7 @@
       <c r="X443" s="3"/>
       <c r="Y443" s="3"/>
     </row>
-    <row r="444" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>12</v>
       </c>
@@ -33269,7 +33270,7 @@
       <c r="X444" s="3"/>
       <c r="Y444" s="3"/>
     </row>
-    <row r="445" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>12</v>
       </c>
@@ -33307,7 +33308,7 @@
       <c r="X445" s="3"/>
       <c r="Y445" s="3"/>
     </row>
-    <row r="446" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>12</v>
       </c>
@@ -33342,7 +33343,7 @@
       <c r="X446" s="3"/>
       <c r="Y446" s="3"/>
     </row>
-    <row r="447" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>12</v>
       </c>
@@ -33375,7 +33376,7 @@
       <c r="X447" s="3"/>
       <c r="Y447" s="3"/>
     </row>
-    <row r="448" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>12</v>
       </c>
@@ -33407,7 +33408,7 @@
       <c r="X448" s="3"/>
       <c r="Y448" s="3"/>
     </row>
-    <row r="449" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="3">
         <v>12</v>
       </c>
@@ -33444,7 +33445,7 @@
       <c r="X449" s="3"/>
       <c r="Y449" s="3"/>
     </row>
-    <row r="450" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>12</v>
       </c>
@@ -33483,7 +33484,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="1:29" ht="272" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="272" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>12</v>
       </c>
@@ -33522,7 +33523,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="452" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="3">
         <v>12</v>
       </c>
@@ -33558,7 +33559,7 @@
       <c r="X452" s="3"/>
       <c r="Y452" s="3"/>
     </row>
-    <row r="453" spans="1:29" ht="85" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="3">
         <v>12</v>
       </c>
@@ -33594,7 +33595,7 @@
       <c r="X453" s="3"/>
       <c r="Y453" s="3"/>
     </row>
-    <row r="454" spans="1:29" ht="153" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>12</v>
       </c>
@@ -33628,7 +33629,7 @@
       <c r="X454" s="3"/>
       <c r="Y454" s="3"/>
     </row>
-    <row r="455" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>12</v>
       </c>
@@ -33661,7 +33662,7 @@
       <c r="X455" s="3"/>
       <c r="Y455" s="3"/>
     </row>
-    <row r="456" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>12</v>
       </c>
@@ -33694,7 +33695,7 @@
       <c r="X456" s="3"/>
       <c r="Y456" s="3"/>
     </row>
-    <row r="457" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>12</v>
       </c>
@@ -33724,7 +33725,7 @@
       <c r="X457" s="3"/>
       <c r="Y457" s="3"/>
     </row>
-    <row r="458" spans="1:29" ht="340" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="340" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>13</v>
       </c>
@@ -33759,7 +33760,7 @@
       </c>
       <c r="Y458" s="3"/>
     </row>
-    <row r="459" spans="1:29" ht="255" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>13</v>
       </c>
@@ -33798,7 +33799,7 @@
       </c>
       <c r="Y459" s="3"/>
     </row>
-    <row r="460" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>13</v>
       </c>
@@ -33834,7 +33835,7 @@
       <c r="X460" s="3"/>
       <c r="Y460" s="3"/>
     </row>
-    <row r="461" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>13</v>
       </c>
@@ -33867,7 +33868,7 @@
       <c r="X461" s="3"/>
       <c r="Y461" s="3"/>
     </row>
-    <row r="462" spans="1:29" ht="119" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>13</v>
       </c>
@@ -33903,7 +33904,7 @@
       <c r="X462" s="3"/>
       <c r="Y462" s="3"/>
     </row>
-    <row r="463" spans="1:29" ht="153" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>13</v>
       </c>
@@ -33943,7 +33944,7 @@
       </c>
       <c r="Y463" s="3"/>
     </row>
-    <row r="464" spans="1:29" ht="238" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="238" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="3">
         <v>13</v>
       </c>
@@ -33981,7 +33982,7 @@
       <c r="X464" s="3"/>
       <c r="Y464" s="3"/>
     </row>
-    <row r="465" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="3">
         <v>13</v>
       </c>
@@ -34016,7 +34017,7 @@
       <c r="X465" s="3"/>
       <c r="Y465" s="3"/>
     </row>
-    <row r="466" spans="1:25" ht="340" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" ht="340" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>14</v>
       </c>
@@ -34051,7 +34052,7 @@
       </c>
       <c r="Y466" s="3"/>
     </row>
-    <row r="467" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>14</v>
       </c>
@@ -34089,7 +34090,7 @@
       <c r="X467" s="3"/>
       <c r="Y467" s="3"/>
     </row>
-    <row r="468" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>14</v>
       </c>
@@ -34125,7 +34126,7 @@
       <c r="X468" s="3"/>
       <c r="Y468" s="3"/>
     </row>
-    <row r="469" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>14</v>
       </c>
@@ -34160,7 +34161,7 @@
       <c r="X469" s="3"/>
       <c r="Y469" s="3"/>
     </row>
-    <row r="470" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>14</v>
       </c>
@@ -34192,7 +34193,7 @@
       <c r="X470" s="3"/>
       <c r="Y470" s="3"/>
     </row>
-    <row r="471" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>14</v>
       </c>
@@ -34227,7 +34228,7 @@
       <c r="X471" s="3"/>
       <c r="Y471" s="3"/>
     </row>
-    <row r="472" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="3">
         <v>14</v>
       </c>
@@ -34262,7 +34263,7 @@
       <c r="X472" s="3"/>
       <c r="Y472" s="3"/>
     </row>
-    <row r="473" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="3">
         <v>14</v>
       </c>
@@ -34296,7 +34297,7 @@
       <c r="X473" s="3"/>
       <c r="Y473" s="3"/>
     </row>
-    <row r="474" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>14</v>
       </c>
@@ -34333,7 +34334,7 @@
       <c r="X474" s="3"/>
       <c r="Y474" s="3"/>
     </row>
-    <row r="475" spans="1:25" ht="119" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>14</v>
       </c>
@@ -34371,7 +34372,7 @@
       <c r="X475" s="3"/>
       <c r="Y475" s="3"/>
     </row>
-    <row r="476" spans="1:25" ht="204" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>14</v>
       </c>
@@ -34408,7 +34409,7 @@
       </c>
       <c r="Y476" s="3"/>
     </row>
-    <row r="477" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>14</v>
       </c>
@@ -34443,7 +34444,7 @@
       <c r="X477" s="3"/>
       <c r="Y477" s="3"/>
     </row>
-    <row r="478" spans="1:25" ht="102" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>14</v>
       </c>
@@ -34477,7 +34478,13 @@
       <c r="Y478" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y478" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y478" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="http://www.seattle.gov/util/MyServices/Garbage/HouseResidentsGarbage/ExtraorBulkyGarbage/index.htm" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D21" r:id="rId2" display="http://www.seattle.gov/util/MyServices/WhereDoesItGo/HouseholdItems/BathroomLaundry/DisposableDiapers/index.htm" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -35060,8 +35067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B74" sqref="A61:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35786,7 +35793,7 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>478</v>
@@ -35797,7 +35804,7 @@
         <v>7</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>195</v>
@@ -35808,7 +35815,7 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>196</v>
@@ -35819,7 +35826,7 @@
         <v>7</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>198</v>
@@ -35830,7 +35837,7 @@
         <v>7</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>199</v>
@@ -35841,7 +35848,7 @@
         <v>7</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>85</v>
@@ -35852,7 +35859,7 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>87</v>
@@ -35863,7 +35870,7 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>174</v>
@@ -35874,7 +35881,7 @@
         <v>7</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>222</v>
